--- a/storage/uploads/system/salesman_new_customer_template.xlsx
+++ b/storage/uploads/system/salesman_new_customer_template.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
